--- a/RunSQLScripts/ScriptConfig-1.xlsx
+++ b/RunSQLScripts/ScriptConfig-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/gazho_microsoft_com/Documents/Zhou_Data/Projects_Assets_IP_and_Tools/PowerShell_Scripts/Run_SQLScripts_W_Stress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{6C7E4E1A-0A86-4E6D-8485-1553349C0941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1C183D96-059A-4ADF-A9E8-1B14DD0D84DC}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{6C7E4E1A-0A86-4E6D-8485-1553349C0941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0BD44B4C-C2B1-4D35-B72F-F9C56DCFC3BD}"/>
   <bookViews>
-    <workbookView xWindow="-28125" yWindow="-2130" windowWidth="24435" windowHeight="11100" xr2:uid="{A1E37364-5442-46D7-B42D-AEEBF040B4C1}"/>
+    <workbookView xWindow="-28560" yWindow="225" windowWidth="21885" windowHeight="10875" xr2:uid="{A1E37364-5442-46D7-B42D-AEEBF040B4C1}"/>
   </bookViews>
   <sheets>
     <sheet name="ServerDatabaseConfig" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="23">
   <si>
     <t>Active</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>BadQuery.sql</t>
+  </si>
+  <si>
+    <t>ConnectionTimeOut</t>
+  </si>
+  <si>
+    <t>QueryTimeOut</t>
   </si>
 </sst>
 </file>
@@ -469,20 +475,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15B895-B58E-4D97-B54B-122E16CD9513}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.265625" customWidth="1"/>
-    <col min="3" max="3" width="17.06640625" customWidth="1"/>
+    <col min="2" max="4" width="22.265625" customWidth="1"/>
+    <col min="5" max="5" width="17.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -490,10 +496,16 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -501,6 +513,12 @@
         <v>16</v>
       </c>
       <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
     </row>

--- a/RunSQLScripts/ScriptConfig-1.xlsx
+++ b/RunSQLScripts/ScriptConfig-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/gazho_microsoft_com/Documents/Zhou_Data/Projects_Assets_IP_and_Tools/PowerShell_Scripts/Run_SQLScripts_W_Stress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{6C7E4E1A-0A86-4E6D-8485-1553349C0941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0BD44B4C-C2B1-4D35-B72F-F9C56DCFC3BD}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{6C7E4E1A-0A86-4E6D-8485-1553349C0941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{68CFE13E-2A2E-4883-BEEF-F641933054B9}"/>
   <bookViews>
-    <workbookView xWindow="-28560" yWindow="225" windowWidth="21885" windowHeight="10875" xr2:uid="{A1E37364-5442-46D7-B42D-AEEBF040B4C1}"/>
+    <workbookView xWindow="-28065" yWindow="-4170" windowWidth="21885" windowHeight="10875" activeTab="1" xr2:uid="{A1E37364-5442-46D7-B42D-AEEBF040B4C1}"/>
   </bookViews>
   <sheets>
     <sheet name="ServerDatabaseConfig" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
   <si>
     <t>Active</t>
   </si>
@@ -91,9 +91,6 @@
     <t>RecentQuries.sql</t>
   </si>
   <si>
-    <t>RecentQuriesByUsers.sql</t>
-  </si>
-  <si>
     <t>WorkersCount</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>QueryTimeOut</t>
+  </si>
+  <si>
+    <t>GetTodaysQueries.sql</t>
   </si>
 </sst>
 </file>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15B895-B58E-4D97-B54B-122E16CD9513}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -496,13 +496,13 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -516,7 +516,7 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -529,10 +529,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C95D336-C2E5-4EAE-B3DF-DF1A193E3293}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -586,7 +586,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="6">
         <v>5</v>
@@ -609,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="6">
         <v>10</v>
@@ -632,7 +632,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="6">
         <v>8</v>
@@ -655,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="6">
         <v>5</v>
@@ -672,7 +672,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -695,7 +695,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -704,52 +704,6 @@
         <v>1</v>
       </c>
       <c r="G7" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
         <v>1</v>
       </c>
     </row>
@@ -761,10 +715,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8928B37F-3F15-466F-BC70-6D91B30F8455}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -818,7 +772,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="6">
         <v>5</v>
@@ -841,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="6">
         <v>10</v>
@@ -864,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="6">
         <v>8</v>
@@ -887,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="6">
         <v>5</v>
@@ -904,7 +858,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -927,7 +881,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -936,52 +890,6 @@
         <v>1</v>
       </c>
       <c r="G7" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
         <v>1</v>
       </c>
     </row>
